--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064960E-7353-4FE7-9008-F463CF90A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793D5FC-A7D1-4B4E-9F45-69910EEAC61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="529">
   <si>
     <t>emp_id</t>
   </si>
@@ -650,6 +650,21 @@
   </si>
   <si>
     <t>1968-05-23</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
   </si>
   <si>
     <t>Part-time</t>
@@ -1692,12 +1707,6 @@
   </si>
   <si>
     <t>8C</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -2067,18 +2076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="45.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2126,28 +2128,28 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H2">
         <v>648559061756</v>
       </c>
       <c r="I2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2161,28 +2163,28 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H3">
         <v>137952611474</v>
       </c>
       <c r="I3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2196,28 +2198,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H4">
         <v>706652989133</v>
       </c>
       <c r="I4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2231,28 +2233,28 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H5">
         <v>403582754984</v>
       </c>
       <c r="I5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K5" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2266,28 +2268,28 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H6">
         <v>315832342388</v>
       </c>
       <c r="I6" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K6" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2301,28 +2303,28 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H7">
         <v>743091774687</v>
       </c>
       <c r="I7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2336,28 +2338,28 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H8">
         <v>431974422209</v>
       </c>
       <c r="I8" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K8" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2371,28 +2373,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H9">
         <v>979780241502</v>
       </c>
       <c r="I9" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J9" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K9" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2406,28 +2408,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H10">
         <v>229497359664</v>
       </c>
       <c r="I10" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2441,28 +2443,28 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H11">
         <v>597299568796</v>
       </c>
       <c r="I11" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J11" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K11" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2476,28 +2478,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H12">
         <v>212379069599</v>
       </c>
       <c r="I12" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J12" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K12" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2511,28 +2513,28 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H13">
         <v>206418354101</v>
       </c>
       <c r="I13" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J13" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K13" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2546,28 +2548,28 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H14">
         <v>584192351886</v>
       </c>
       <c r="I14" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J14" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K14" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2581,28 +2583,28 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H15">
         <v>196039167242</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K15" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2616,28 +2618,28 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H16">
         <v>759042244189</v>
       </c>
       <c r="I16" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J16" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K16" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2651,28 +2653,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H17">
         <v>467607418144</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K17" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2686,28 +2688,28 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H18">
         <v>364779979890</v>
       </c>
       <c r="I18" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K18" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2721,28 +2723,28 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H19">
         <v>810667824063</v>
       </c>
       <c r="I19" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J19" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K19" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2756,28 +2758,28 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H20">
         <v>121216267981</v>
       </c>
       <c r="I20" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J20" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K20" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2791,28 +2793,28 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H21">
         <v>195494225870</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J21" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K21" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2826,28 +2828,28 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H22">
         <v>537438151053</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J22" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K22" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2861,28 +2863,28 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H23">
         <v>897446102202</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J23" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K23" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2896,28 +2898,28 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H24">
         <v>937187699111</v>
       </c>
       <c r="I24" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J24" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K24" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2931,28 +2933,28 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H25">
         <v>779818943791</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J25" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K25" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2966,28 +2968,28 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H26">
         <v>952701409513</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J26" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K26" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3001,28 +3003,28 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H27">
         <v>941799797738</v>
       </c>
       <c r="I27" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J27" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K27" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3036,28 +3038,28 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H28">
         <v>524429255605</v>
       </c>
       <c r="I28" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J28" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K28" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3071,28 +3073,28 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H29">
         <v>900167539314</v>
       </c>
       <c r="I29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J29" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K29" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3106,28 +3108,28 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H30">
         <v>957134240394</v>
       </c>
       <c r="I30" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J30" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K30" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3141,28 +3143,28 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H31">
         <v>612058883882</v>
       </c>
       <c r="I31" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K31" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3176,28 +3178,28 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H32">
         <v>463099846798</v>
       </c>
       <c r="I32" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J32" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K32" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3211,28 +3213,28 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H33">
         <v>741983234529</v>
       </c>
       <c r="I33" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K33" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,28 +3248,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H34">
         <v>223588277519</v>
       </c>
       <c r="I34" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J34" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K34" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3281,28 +3283,28 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H35">
         <v>278144285507</v>
       </c>
       <c r="I35" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J35" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K35" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3316,28 +3318,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H36">
         <v>460588189626</v>
       </c>
       <c r="I36" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J36" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K36" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3351,28 +3353,28 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H37">
         <v>632069846593</v>
       </c>
       <c r="I37" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J37" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K37" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3386,28 +3388,28 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H38">
         <v>539277202439</v>
       </c>
       <c r="I38" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J38" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K38" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3421,28 +3423,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H39">
         <v>458703642524</v>
       </c>
       <c r="I39" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J39" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K39" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3456,28 +3458,28 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G40" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H40">
         <v>143951791695</v>
       </c>
       <c r="I40" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J40" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K40" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3491,28 +3493,28 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H41">
         <v>702572597624</v>
       </c>
       <c r="I41" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J41" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K41" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3526,28 +3528,28 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G42" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H42">
         <v>781452946044</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K42" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3561,28 +3563,28 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H43">
         <v>102283712742</v>
       </c>
       <c r="I43" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J43" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K43" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3596,28 +3598,28 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G44" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H44">
         <v>727752747523</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J44" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K44" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3631,28 +3633,28 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G45" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H45">
         <v>295898199420</v>
       </c>
       <c r="I45" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J45" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K45" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,28 +3668,28 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H46">
         <v>515687510305</v>
       </c>
       <c r="I46" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J46" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K46" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3701,28 +3703,28 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H47">
         <v>621685561996</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K47" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,28 +3738,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G48" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H48">
         <v>788093413338</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J48" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3771,28 +3773,28 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G49" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H49">
         <v>474760840752</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K49" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3806,28 +3808,28 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G50" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H50">
         <v>963698244498</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J50" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K50" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3841,28 +3843,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H51">
         <v>544948800338</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K51" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3876,28 +3878,28 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H52">
         <v>404839120610</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J52" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K52" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3911,28 +3913,28 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G53" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H53">
         <v>589306943235</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3946,28 +3948,28 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H54">
         <v>532840442107</v>
       </c>
       <c r="I54" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3981,28 +3983,28 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G55" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H55">
         <v>906299273502</v>
       </c>
       <c r="I55" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4016,28 +4018,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G56" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H56">
         <v>936633830009</v>
       </c>
       <c r="I56" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J56" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4051,28 +4053,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H57">
         <v>945573911962</v>
       </c>
       <c r="I57" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4086,28 +4088,28 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G58" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H58">
         <v>661091207706</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K58" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4121,28 +4123,28 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H59">
         <v>811738304307</v>
       </c>
       <c r="I59" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K59" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4156,28 +4158,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G60" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H60">
         <v>911171415256</v>
       </c>
       <c r="I60" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J60" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4191,28 +4193,28 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G61" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H61">
         <v>437987573852</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K61" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4226,28 +4228,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G62" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H62">
         <v>464497405803</v>
       </c>
       <c r="I62" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K62" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4261,28 +4263,28 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G63" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H63">
         <v>539716716962</v>
       </c>
       <c r="I63" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,28 +4298,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G64" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H64">
         <v>663727264593</v>
       </c>
       <c r="I64" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J64" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K64" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4331,28 +4333,28 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G65" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H65">
         <v>114969427073</v>
       </c>
       <c r="I65" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K65" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4366,28 +4368,28 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H66">
         <v>283175382966</v>
       </c>
       <c r="I66" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K66" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4401,28 +4403,28 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G67" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H67">
         <v>178944104188</v>
       </c>
       <c r="I67" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J67" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K67" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4436,28 +4438,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G68" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H68">
         <v>896075448848</v>
       </c>
       <c r="I68" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J68" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K68" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4471,28 +4473,28 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G69" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H69">
         <v>292599663761</v>
       </c>
       <c r="I69" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J69" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K69" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4506,28 +4508,28 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G70" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H70">
         <v>675046921235</v>
       </c>
       <c r="I70" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J70" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K70" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4541,28 +4543,28 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G71" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H71">
         <v>352554719145</v>
       </c>
       <c r="I71" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J71" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K71" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4576,28 +4578,28 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G72" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H72">
         <v>109798335793</v>
       </c>
       <c r="I72" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K72" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4611,28 +4613,28 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>525</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G73" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H73">
         <v>396867183272</v>
       </c>
       <c r="I73" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J73" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4646,28 +4648,28 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G74" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H74">
         <v>606208023697</v>
       </c>
       <c r="I74" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J74" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K74" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4681,28 +4683,28 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G75" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H75">
         <v>371774400623</v>
       </c>
       <c r="I75" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J75" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4716,28 +4718,28 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G76" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H76">
         <v>653380274106</v>
       </c>
       <c r="I76" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J76" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K76" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4751,28 +4753,28 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G77" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H77">
         <v>647767630124</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J77" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K77" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4786,28 +4788,28 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F78" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G78" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H78">
         <v>940663628703</v>
       </c>
       <c r="I78" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J78" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K78" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4821,28 +4823,28 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G79" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H79">
         <v>235281864271</v>
       </c>
       <c r="I79" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K79" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4856,28 +4858,28 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G80" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H80">
         <v>124655591663</v>
       </c>
       <c r="I80" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J80" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K80" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4891,28 +4893,28 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G81" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H81">
         <v>426994426676</v>
       </c>
       <c r="I81" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J81" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K81" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4926,28 +4928,28 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H82">
         <v>542054283115</v>
       </c>
       <c r="I82" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J82" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K82" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4961,28 +4963,28 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H83">
         <v>975343657768</v>
       </c>
       <c r="I83" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J83" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K83" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4996,28 +4998,28 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>525</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G84" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H84">
         <v>849025645768</v>
       </c>
       <c r="I84" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J84" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K84" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5031,28 +5033,28 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F85" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H85">
         <v>849944420137</v>
       </c>
       <c r="I85" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J85" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K85" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5066,28 +5068,28 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F86" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G86" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H86">
         <v>945851345217</v>
       </c>
       <c r="I86" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J86" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K86" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5101,28 +5103,28 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F87" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G87" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H87">
         <v>232347527319</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J87" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K87" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5136,28 +5138,28 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G88" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H88">
         <v>451429459451</v>
       </c>
       <c r="I88" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J88" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="K88" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5171,28 +5173,28 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G89" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H89">
         <v>576939014732</v>
       </c>
       <c r="I89" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J89" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K89" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5206,28 +5208,28 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G90" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H90">
         <v>620748854885</v>
       </c>
       <c r="I90" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J90" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K90" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5241,28 +5243,28 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F91" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G91" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H91">
         <v>471621101897</v>
       </c>
       <c r="I91" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J91" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K91" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5276,28 +5278,28 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G92" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H92">
         <v>324642682499</v>
       </c>
       <c r="I92" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J92" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K92" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5311,28 +5313,28 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H93">
         <v>633322462323</v>
       </c>
       <c r="I93" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J93" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K93" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5346,28 +5348,28 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F94" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G94" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H94">
         <v>926476616136</v>
       </c>
       <c r="I94" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J94" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K94" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5381,28 +5383,28 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F95" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G95" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H95">
         <v>148430939841</v>
       </c>
       <c r="I95" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J95" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K95" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5416,28 +5418,28 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G96" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H96">
         <v>176347248109</v>
       </c>
       <c r="I96" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J96" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K96" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5451,28 +5453,28 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F97" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G97" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H97">
         <v>362078731018</v>
       </c>
       <c r="I97" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J97" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K97" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5486,28 +5488,28 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G98" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H98">
         <v>357518411061</v>
       </c>
       <c r="I98" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J98" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K98" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5521,28 +5523,28 @@
         <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G99" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H99">
         <v>487850252122</v>
       </c>
       <c r="I99" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J99" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K99" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5556,28 +5558,28 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>525</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G100" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H100">
         <v>499266611188</v>
       </c>
       <c r="I100" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J100" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K100" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5591,28 +5593,28 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F101" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G101" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H101">
         <v>983969674177</v>
       </c>
       <c r="I101" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J101" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K101" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
